--- a/output.xlsx
+++ b/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,11 +428,11 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>{'created_on': '2021-03-08T08:48:00.221Z', 'updated_on': '2021-03-08T08:48:00.221Z', 'city_name': 'Bengaluru', 'weather_details': [{'id': 800, 'icon': '01d', 'main': 'Clear', 'description': 'clear sky'}], 'wind_details': {'deg': 110, 'speed': 4.12}, 'temperature_details': {'temp': 303.78, 'humidity': 16, 'pressure': 1015, 'temp_max': 304.82, 'temp_min': 302.59, 'feels_like': 299.21}, 'visibility': 10000, 'lat': '12.9762', 'long': '77.6033', 'openweather_id': 1277333}</t>
+          <t>{'created_on': '2021-03-09T07:37:26.640Z', 'updated_on': '2021-03-09T07:37:26.640Z', 'city_name': 'Srinagar', 'weather_details': [{'id': 801, 'icon': '02d', 'main': 'Clouds', 'description': 'few clouds'}], 'wind_details': {'deg': 289, 'speed': 1.11}, 'temperature_details': {'temp': 288.37, 'humidity': 35, 'pressure': 1021, 'temp_max': 288.37, 'temp_min': 288.37, 'sea_level': 1021, 'feels_like': 285.59, 'grnd_level': 849}, 'visibility': 10000, 'lat': '34.0833', 'long': '74.8167', 'openweather_id': 1255634}</t>
         </is>
       </c>
     </row>
@@ -443,11 +443,131 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'created_on': '2021-03-08T07:58:53.072Z', 'updated_on': '2021-03-08T07:58:53.072Z', 'city_name': 'London', 'weather_details': [{'id': 804, 'icon': '04d', 'main': 'Clouds', 'description': 'overcast clouds'}], 'wind_details': {'deg': 230, 'speed': 2.06}, 'temperature_details': {'temp': 275.47, 'humidity': 70, 'pressure': 1025, 'temp_max': 276.48, 'temp_min': 274.82, 'feels_like': 271.69}, 'visibility': 8000, 'lat': '51.5085', 'long': '-0.1257', 'openweather_id': 2643743}</t>
+          <t>{'created_on': '2021-03-09T07:37:26.378Z', 'updated_on': '2021-03-09T07:37:26.378Z', 'city_name': 'Rajkot', 'weather_details': [{'id': 800, 'icon': '01d', 'main': 'Clear', 'description': 'clear sky'}], 'wind_details': {'deg': 320, 'speed': 4.12}, 'temperature_details': {'temp': 306.14, 'humidity': 31, 'pressure': 1015, 'temp_max': 307.04, 'temp_min': 305.15, 'feels_like': 304.38}, 'visibility': 6000, 'lat': '22.3', 'long': '70.7833', 'openweather_id': 1258847}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>weatherinfo.cityweatherdetails</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'created_on': '2021-03-09T07:37:26.131Z', 'updated_on': '2021-03-09T07:37:26.131Z', 'city_name': 'Meerut', 'weather_details': [{'id': 721, 'icon': '50d', 'main': 'Haze', 'description': 'haze'}], 'wind_details': {'deg': 100, 'speed': 1.54}, 'temperature_details': {'temp': 305.15, 'humidity': 55, 'pressure': 1013, 'temp_max': 305.15, 'temp_min': 305.15, 'feels_like': 308.67}, 'visibility': 3000, 'lat': '28.9833', 'long': '77.7', 'openweather_id': 1263214}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>weatherinfo.cityweatherdetails</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>27</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'created_on': '2021-03-09T07:37:25.915Z', 'updated_on': '2021-03-09T07:37:25.915Z', 'city_name': 'Faridabad', 'weather_details': [{'id': 721, 'icon': '50d', 'main': 'Haze', 'description': 'haze'}], 'wind_details': {'deg': 100, 'speed': 1.54}, 'temperature_details': {'temp': 304.66, 'humidity': 55, 'pressure': 1013, 'temp_max': 305.15, 'temp_min': 304.15, 'feels_like': 307.95}, 'visibility': 3000, 'lat': '28.4333', 'long': '77.3167', 'openweather_id': 1271951}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>weatherinfo.cityweatherdetails</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>26</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'created_on': '2021-03-09T07:37:25.582Z', 'updated_on': '2021-03-09T07:37:25.582Z', 'city_name': 'Ranchi', 'weather_details': [{'id': 801, 'icon': '02d', 'main': 'Clouds', 'description': 'few clouds'}], 'wind_details': {'deg': 320, 'speed': 2.06}, 'temperature_details': {'temp': 307.15, 'humidity': 26, 'pressure': 1015, 'temp_max': 307.15, 'temp_min': 307.15, 'feels_like': 306.26}, 'visibility': 6000, 'lat': '23.35', 'long': '85.3333', 'openweather_id': 1258526}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>weatherinfo.cityweatherdetails</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'created_on': '2021-03-09T07:37:25.351Z', 'updated_on': '2021-03-09T07:37:25.351Z', 'city_name': 'Nashik', 'weather_details': [{'id': 800, 'icon': '01d', 'main': 'Clear', 'description': 'clear sky'}], 'wind_details': {'deg': 92, 'speed': 1.39}, 'temperature_details': {'temp': 307.46, 'humidity': 13, 'pressure': 1011, 'temp_max': 307.46, 'temp_min': 307.46, 'sea_level': 1011, 'feels_like': 304.8, 'grnd_level': 948}, 'visibility': 10000, 'lat': '19.9833', 'long': '73.8', 'openweather_id': 1261731}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>weatherinfo.cityweatherdetails</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>24</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>{'created_on': '2021-03-09T07:37:25.099Z', 'updated_on': '2021-03-09T07:37:25.099Z', 'city_name': 'Agra', 'weather_details': [{'id': 800, 'icon': '01d', 'main': 'Clear', 'description': 'clear sky'}], 'wind_details': {'deg': 172, 'speed': 2.66}, 'temperature_details': {'temp': 309.52, 'humidity': 12, 'pressure': 1009, 'temp_max': 309.52, 'temp_min': 309.52, 'sea_level': 1009, 'feels_like': 306.05, 'grnd_level': 990}, 'visibility': 10000, 'lat': '27.1833', 'long': '78.0167', 'openweather_id': 1279259}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>weatherinfo.cityweatherdetails</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>23</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>{'created_on': '2021-03-09T07:37:24.848Z', 'updated_on': '2021-03-09T07:37:24.848Z', 'city_name': 'Ludhiana', 'weather_details': [{'id': 800, 'icon': '01d', 'main': 'Clear', 'description': 'clear sky'}], 'wind_details': {'deg': 213, 'speed': 0.79}, 'temperature_details': {'temp': 308.72, 'humidity': 12, 'pressure': 1012, 'temp_max': 308.72, 'temp_min': 308.72, 'sea_level': 1012, 'feels_like': 306.46, 'grnd_level': 984}, 'visibility': 10000, 'lat': '30.9', 'long': '75.85', 'openweather_id': 1264728}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>weatherinfo.cityweatherdetails</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>22</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>{'created_on': '2021-03-09T07:37:24.615Z', 'updated_on': '2021-03-09T07:37:24.615Z', 'city_name': 'Ghaziabad', 'weather_details': [{'id': 721, 'icon': '50d', 'main': 'Haze', 'description': 'haze'}], 'wind_details': {'deg': 100, 'speed': 1.54}, 'temperature_details': {'temp': 304.66, 'humidity': 55, 'pressure': 1013, 'temp_max': 305.15, 'temp_min': 304.15, 'feels_like': 307.95}, 'visibility': 3000, 'lat': '28.6667', 'long': '77.4333', 'openweather_id': 1271308}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>weatherinfo.cityweatherdetails</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>21</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>{'created_on': '2021-03-09T07:37:24.446Z', 'updated_on': '2021-03-09T07:37:24.446Z', 'city_name': 'Vadodara', 'weather_details': [{'id': 800, 'icon': '01d', 'main': 'Clear', 'description': 'clear sky'}], 'wind_details': {'deg': 300, 'speed': 1.54}, 'temperature_details': {'temp': 307.15, 'humidity': 31, 'pressure': 1012, 'temp_max': 307.15, 'temp_min': 307.15, 'feels_like': 307.49}, 'visibility': 6000, 'lat': '22.3', 'long': '73.2', 'openweather_id': 1253573}</t>
         </is>
       </c>
     </row>
